--- a/File Return Folder/Residual Stress _challenge sample_template.xlsx
+++ b/File Return Folder/Residual Stress _challenge sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DROP\Dropbox (ORNL)\MBAAM_APS_SRP_Sim\SRPDrafts\SRP\SRPCALLPackage\ResidualStress\ChallTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aahenri\Sandia_Project_Work\SRP_AM_Prediction_Challenge\File Return Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF0D58-F28B-4914-A2F1-6CBE32A2F81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52430F3F-CF31-497E-9655-514F6ABA382E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{5F0AA981-4793-3744-9888-3E598513528F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F0AA981-4793-3744-9888-3E598513528F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mid Plane (Y=0)" sheetId="12" r:id="rId1"/>
@@ -434,9 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47808F01-2D3A-4E6A-A25D-E368583C9164}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView topLeftCell="L1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -584,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F4C346-123F-8244-B234-D12BE5EA21F6}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
